--- a/biology/Histoire de la zoologie et de la botanique/Carl_Johann_Schoenherr/Carl_Johann_Schoenherr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Johann_Schoenherr/Carl_Johann_Schoenherr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Johann Schoenherr (ou Schönherr) (1772-1848) est un entomologiste suédois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Stockholm, Schönherr était le fils d'un immigrant allemand qui s'était établi comme fabricant de soie. À l'âge de dix-neuf ans, il reprend l'entreprise avec sa mère et la développe jusqu'à atteindre une taille considérable, avec environ 200 ouvriers. En 1805, il s'associa avec Erik Lundgren et, en 1811, il lui vendit l'entreprise, tout en se retirant dans son manoir Sparresäter à Lerdala près de Skara dans le Västergötland , où il mourut en 1848. 
 Schönherr s'intéressait à l'entomologie depuis l'âge de douze ans et fut plus tard stimulé par son amitié avec Gustaf Johan Billberg , son beau-frère issu de son deuxième mariage.
@@ -545,7 +559,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la seule sous-famille des Curculioninae (charançons), il est le premier à avoir étudié et nommé les cinquante-huit genres suivants :
 Acalles 1825
